--- a/aaImport/abonement.xlsx
+++ b/aaImport/abonement.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" state="visible" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <charset val="204"/>
@@ -34,13 +34,6 @@
       <color theme="1"/>
       <sz val="14"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Segoe UI"/>
-      <charset val="204"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="9"/>
     </font>
   </fonts>
   <fills count="3">
@@ -97,7 +90,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -122,7 +115,6 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -500,10 +492,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:Z8"/>
+  <dimension ref="A2:Z7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -624,7 +616,7 @@
       </c>
       <c r="E4" s="13" t="inlineStr">
         <is>
-          <t>2023-11-17</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="F4" s="9" t="n">
@@ -675,7 +667,7 @@
       </c>
       <c r="E5" s="13" t="inlineStr">
         <is>
-          <t>2023-11-17</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="F5" s="9" t="n">
@@ -726,7 +718,7 @@
       </c>
       <c r="E6" s="13" t="inlineStr">
         <is>
-          <t>2023-11-17</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -754,14 +746,6 @@
       </c>
       <c r="M6" s="12" t="n">
         <v>996706224492</v>
-      </c>
-      <c r="X6" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>R AICHUROK</t>
-        </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
@@ -792,7 +776,7 @@
       </c>
       <c r="E7" s="13" t="inlineStr">
         <is>
-          <t>2023-11-17</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="F7" s="9" t="n">
@@ -818,57 +802,6 @@
       </c>
       <c r="M7" s="7" t="n">
         <v>996773001103</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="inlineStr">
-        <is>
-          <t>Кудайбердиев Нураалы Базарбаевич</t>
-        </is>
-      </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>Офис Жалалабад</t>
-        </is>
-      </c>
-      <c r="C8" s="14" t="inlineStr">
-        <is>
-          <t>Алмазбеков Данияр Алмазбекович</t>
-        </is>
-      </c>
-      <c r="D8" s="4" t="inlineStr">
-        <is>
-          <t>НС-З 141999</t>
-        </is>
-      </c>
-      <c r="E8" s="13" t="inlineStr">
-        <is>
-          <t>2023-11-17</t>
-        </is>
-      </c>
-      <c r="F8" s="9" t="n">
-        <v>45392</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>30000</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>675</v>
-      </c>
-      <c r="K8" s="6" t="n">
-        <v>20.25</v>
-      </c>
-      <c r="L8" s="7" t="n">
-        <v>20202199152369</v>
-      </c>
-      <c r="M8" s="7" t="n">
-        <v>996556688884</v>
       </c>
     </row>
   </sheetData>
